--- a/biology/Médecine/Phocomélie/Phocomélie.xlsx
+++ b/biology/Médecine/Phocomélie/Phocomélie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Phocom%C3%A9lie</t>
+          <t>Phocomélie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La phocomélie (du grec φώκη (phốkê), phoque et μέλος (mélos), membre) est une malformation par phénocopie (une anomalie du développement) durant la grossesse. Elle aboutit à un individu ectromélien (arrêt de développement d'un ou de plusieurs membres) caractérisé par une aplasie ou une hypoplasie des membres ; celle-ci aboutit le plus souvent à l'implantation directe des mains et des pieds sur le tronc.
 On désigne les patients par le nom de phocomèles. Le terme a été emprunté à celui du phoque, auquel ressemblent les individus atteints de phocomélie.
-De nombreux cas de phocomélie ont été provoqués par la prescription médicale de thalidomide, un sédatif prescrit pour calmer les vomissements de la grossesse commercialisé en 1956 dont le distomère[1] se révéla tératogène pour l'embryon. 
+De nombreux cas de phocomélie ont été provoqués par la prescription médicale de thalidomide, un sédatif prescrit pour calmer les vomissements de la grossesse commercialisé en 1956 dont le distomère se révéla tératogène pour l'embryon. 
 Le musée Dupuytren de Paris possède le squelette ainsi qu'une statue de cire de Pipine, un individu atteint de phocomélie.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Phocom%C3%A9lie</t>
+          <t>Phocomélie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Personnalités atteintes de phocomélie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sarah Biffin
 Matthias Buchinger
